--- a/data/outputs/IWRC_ROI_Analysis_Summary.xlsx
+++ b/data/outputs/IWRC_ROI_Analysis_Summary.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Investment" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ROI Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Students Trained" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Institutions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Year Distribution" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -27,14 +34,22 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +70,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,10 +446,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -451,132 +475,611 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Total IWRC Investment</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$8,516,278.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$7,319,144.00</t>
-        </is>
+      <c r="B2" s="3" t="n">
+        <v>8516278</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>7319144</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Total Follow-on Funding Secured</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$275,195.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$261,000.00</t>
-        </is>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Return on Investment (ROI)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Return on Investment (ROI)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.032x</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.036x</t>
-        </is>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Number of Projects</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Total Students Trained</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>304</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>PhD Students</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>118</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Master's Students</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Undergraduate Students</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Post-Doctoral Researchers</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Institutions Served</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Investment</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Number of Projects</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>220</v>
-      </c>
-      <c r="C10" t="n">
-        <v>142</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Per Project Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>10-Year (2015-2024)</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>8516278</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>110601.012987013</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>5-Year (2020-2024)</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>7319144</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>155726.4680851064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IWRC Investment</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Follow-on Funding</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ROI Multiplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>10-Year (2015-2024)</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>8516278</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>5-Year (2020-2024)</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>7319144</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>10-Year (2015-2024)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>5-Year (2020-2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Master's</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Post-Doctoral</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>304</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Institutions</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Institutions List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>10-Year (2015-2024)</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Basil's Harvest, Eastern Illinois University, Illinois Institute of Technology, Illinois State University, Lewis and Clark Community College, Northwestern University, Southern Illinois University, Southern Illinois University at Carbondale, Univeristy of Illinois, University of Illinois, University of Illinois , University of Illinois Chicago, University of Illinois Urbana-Champaign, University of Illinois at Urbana-Champaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>5-Year (2020-2024)</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Basil's Harvest, Illinois Institute of Technology, Illinois State University, Lewis and Clark Community College, Southern Illinois University at Carbondale, University of Illinois, University of Illinois Urbana-Champaign, University of Illinois at Urbana-Champaign</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>10-Year Count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>5-Year Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
